--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_1_com_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_1_com_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C9203-8424-418E-83B9-864014704362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291023D7-CAE6-4D07-AEBD-C46F96622E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -242,12 +242,6 @@
     <t>site_id</t>
   </si>
   <si>
-    <t>ng_oncho_2410_1_com_tar</t>
-  </si>
-  <si>
-    <t>(Taraba) 1. Community Registration Form</t>
-  </si>
-  <si>
     <t>TARABA</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>IBI</t>
   </si>
   <si>
-    <t>JALINGO/K/LAMIDO</t>
-  </si>
-  <si>
     <t>KARIM LAMIDO</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>FILINGA</t>
   </si>
   <si>
-    <t>GANGWEREN</t>
-  </si>
-  <si>
     <t>JAURO JALLO</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>LUMBU</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>FIYAYI</t>
   </si>
   <si>
@@ -425,9 +410,6 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>TAR_ARD_N_001</t>
-  </si>
-  <si>
     <t>TAR_ARD_N_002</t>
   </si>
   <si>
@@ -473,9 +455,6 @@
     <t>TAR_GAL_N_016</t>
   </si>
   <si>
-    <t>TAR_GAL_N_017</t>
-  </si>
-  <si>
     <t>TAR_GAL_N_018</t>
   </si>
   <si>
@@ -494,12 +473,6 @@
     <t>TAR_IBI_N_023</t>
   </si>
   <si>
-    <t>TAR_JAL_N_024</t>
-  </si>
-  <si>
-    <t>TAR_JAL_N_025</t>
-  </si>
-  <si>
     <t>TAR_KAL_N_026</t>
   </si>
   <si>
@@ -512,9 +485,6 @@
     <t>TAR_KUR_N_029</t>
   </si>
   <si>
-    <t>TAR_LAU_N_030</t>
-  </si>
-  <si>
     <t>TAR_LAU_N_031</t>
   </si>
   <si>
@@ -533,15 +503,9 @@
     <t>TAR_TAK_N_036</t>
   </si>
   <si>
-    <t>TAR_TAK_N_037</t>
-  </si>
-  <si>
     <t>TAR_TAK_N_038</t>
   </si>
   <si>
-    <t>TAR_TAK_N_039</t>
-  </si>
-  <si>
     <t>TAR_WUK_N_040</t>
   </si>
   <si>
@@ -579,6 +543,63 @@
   </si>
   <si>
     <t>TAR_SAR_M_052</t>
+  </si>
+  <si>
+    <t>MAIHULA</t>
+  </si>
+  <si>
+    <t>GANGUMI</t>
+  </si>
+  <si>
+    <t>SENDIRDE</t>
+  </si>
+  <si>
+    <t>ANGWAN GALADIMA</t>
+  </si>
+  <si>
+    <t>BAMBUKA</t>
+  </si>
+  <si>
+    <t>BENTE SAMA</t>
+  </si>
+  <si>
+    <t>KABRI</t>
+  </si>
+  <si>
+    <t>MAYO-NDAGA</t>
+  </si>
+  <si>
+    <t>KWESATI</t>
+  </si>
+  <si>
+    <t>BANTAJE</t>
+  </si>
+  <si>
+    <t>TAR_GAL_N_001</t>
+  </si>
+  <si>
+    <t>TAR_GAA_N_017</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_024</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_025</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_030</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_037</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_039</t>
+  </si>
+  <si>
+    <t>(Taraba) 1. Community Registration Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2410_1_com_tar_v2</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1506,11 +1527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75:F126"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76:F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1579,10 +1600,10 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,13 +1611,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,13 +1625,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,13 +1639,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,13 +1653,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,13 +1667,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,13 +1681,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,13 +1695,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,13 +1709,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,13 +1723,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,13 +1737,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,13 +1751,13 @@
         <v>57</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,13 +1765,13 @@
         <v>57</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,13 +1779,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,47 +1793,47 @@
         <v>57</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,13 +1841,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,13 +1855,13 @@
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,13 +1869,13 @@
         <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1862,13 +1883,13 @@
         <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,13 +1897,13 @@
         <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,13 +1911,13 @@
         <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,13 +1925,13 @@
         <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,13 +1939,13 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,13 +1953,13 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,13 +1967,13 @@
         <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,13 +1981,13 @@
         <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,13 +1995,13 @@
         <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,13 +2009,13 @@
         <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,13 +2023,13 @@
         <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,13 +2037,13 @@
         <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,13 +2051,13 @@
         <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,13 +2065,13 @@
         <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,13 +2079,13 @@
         <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,13 +2093,13 @@
         <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,13 +2107,13 @@
         <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,13 +2121,13 @@
         <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,13 +2135,13 @@
         <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,13 +2149,13 @@
         <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,13 +2163,13 @@
         <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,13 +2177,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,13 +2191,13 @@
         <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,13 +2205,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,13 +2219,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,13 +2247,13 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,13 +2261,13 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,13 +2275,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,13 +2289,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,13 +2303,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,13 +2317,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,13 +2331,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,13 +2345,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,13 +2359,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,13 +2373,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,13 +2387,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,13 +2401,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,13 +2415,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,13 +2429,13 @@
         <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,13 +2443,13 @@
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2436,13 +2457,13 @@
         <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2450,13 +2471,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,13 +2485,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,13 +2499,13 @@
         <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2492,27 +2513,27 @@
         <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,13 +2541,13 @@
         <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,13 +2555,13 @@
         <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,13 +2569,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,13 +2583,13 @@
         <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,13 +2597,13 @@
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2590,13 +2611,13 @@
         <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,13 +2625,13 @@
         <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,13 +2639,13 @@
         <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,13 +2653,13 @@
         <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,13 +2667,13 @@
         <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,13 +2681,13 @@
         <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,13 +2695,13 @@
         <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,13 +2709,13 @@
         <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2702,13 +2723,13 @@
         <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,13 +2737,13 @@
         <v>67</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,13 +2751,13 @@
         <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,13 +2765,13 @@
         <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2758,13 +2779,13 @@
         <v>67</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,13 +2793,13 @@
         <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,13 +2807,13 @@
         <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,13 +2821,13 @@
         <v>67</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,13 +2835,13 @@
         <v>67</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,13 +2849,13 @@
         <v>67</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,13 +2863,13 @@
         <v>67</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,13 +2877,13 @@
         <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2870,13 +2891,13 @@
         <v>67</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,13 +2905,13 @@
         <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,13 +2919,13 @@
         <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,13 +2933,13 @@
         <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,13 +2947,13 @@
         <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,13 +2961,13 @@
         <v>67</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,13 +2975,13 @@
         <v>67</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F107" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,13 +2989,13 @@
         <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,13 +3003,13 @@
         <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,13 +3017,13 @@
         <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,13 +3031,13 @@
         <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,13 +3045,13 @@
         <v>67</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F112" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,13 +3059,13 @@
         <v>67</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,13 +3073,13 @@
         <v>67</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,13 +3087,13 @@
         <v>67</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F115" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,13 +3101,13 @@
         <v>67</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,13 +3115,13 @@
         <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,13 +3129,13 @@
         <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F118" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3122,13 +3143,13 @@
         <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,13 +3157,13 @@
         <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F120" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3150,13 +3171,13 @@
         <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,13 +3185,13 @@
         <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,13 +3199,13 @@
         <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F123" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,13 +3213,13 @@
         <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F124" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,13 +3227,13 @@
         <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F125" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,13 +3241,27 @@
         <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F126" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3242,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3267,10 +3302,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
